--- a/classifier performance.xlsx
+++ b/classifier performance.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16420" tabRatio="167"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="27420" windowHeight="16480" tabRatio="167"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="24">
   <si>
     <t>data: unambiguous, 80% training, 20% testing</t>
   </si>
@@ -94,12 +94,16 @@
   <si>
     <t>avg/total</t>
   </si>
+  <si>
+    <t>LR</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -112,6 +116,20 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="11"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -133,15 +151,27 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="7">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
+    <cellStyle name="已瀏覽過的超連結" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="已瀏覽過的超連結" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="已瀏覽過的超連結" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="超連結" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="超連結" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="超連結" xfId="5" builtinId="8" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -491,11 +521,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-2102639360"/>
-        <c:axId val="-2103568768"/>
+        <c:axId val="-2125740688"/>
+        <c:axId val="-2092832928"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2102639360"/>
+        <c:axId val="-2125740688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -538,7 +568,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2103568768"/>
+        <c:crossAx val="-2092832928"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -546,7 +576,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2103568768"/>
+        <c:axId val="-2092832928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.0"/>
@@ -598,7 +628,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2102639360"/>
+        <c:crossAx val="-2125740688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1026,11 +1056,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-2098911424"/>
-        <c:axId val="-2098474720"/>
+        <c:axId val="-2122695584"/>
+        <c:axId val="-2098641904"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2098911424"/>
+        <c:axId val="-2122695584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1073,7 +1103,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2098474720"/>
+        <c:crossAx val="-2098641904"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1081,7 +1111,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2098474720"/>
+        <c:axId val="-2098641904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.0"/>
@@ -1133,7 +1163,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2098911424"/>
+        <c:crossAx val="-2122695584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1551,11 +1581,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-2103197824"/>
-        <c:axId val="-2092295296"/>
+        <c:axId val="-2125914736"/>
+        <c:axId val="-2100598016"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2103197824"/>
+        <c:axId val="-2125914736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1598,7 +1628,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2092295296"/>
+        <c:crossAx val="-2100598016"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1606,7 +1636,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2092295296"/>
+        <c:axId val="-2100598016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.0"/>
@@ -1658,7 +1688,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2103197824"/>
+        <c:crossAx val="-2125914736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1680,6 +1710,541 @@
           <c:y val="0.0400190813458718"/>
           <c:w val="0.302134900451639"/>
           <c:h val="0.0875056682191183"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-TW"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-TW"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-TW"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>LR</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-TW" altLang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-TW"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.0742753718285214"/>
+          <c:y val="0.190231481481481"/>
+          <c:w val="0.889613517060367"/>
+          <c:h val="0.496052070779812"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$T$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>precision</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$S$4:$S$16</c:f>
+              <c:strCache>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>其它</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>完成式</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>進行式</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>過去式</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>未來式</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>關係代名詞</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>不定詞</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>名詞子句</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>被動</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>介係詞</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>連接詞</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>假設語氣</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>分詞</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$T$4:$T$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.97</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.91</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.91</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.92</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.98</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.89</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.91</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.93</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$U$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>recall</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$S$4:$S$16</c:f>
+              <c:strCache>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>其它</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>完成式</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>進行式</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>過去式</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>未來式</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>關係代名詞</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>不定詞</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>名詞子句</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>被動</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>介係詞</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>連接詞</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>假設語氣</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>分詞</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$U$4:$U$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.57</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.67</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.88</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.96</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.97</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.95</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="-2104187488"/>
+        <c:axId val="-2096389712"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-2104187488"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2096389712"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2096389712"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1.0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2104187488"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.544172134733158"/>
+          <c:y val="0.0393354476523768"/>
+          <c:w val="0.322766841644794"/>
+          <c:h val="0.0875056950119044"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -1859,6 +2424,43 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="13">
+  <a:schemeClr val="accent6"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent4"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -2866,6 +3468,509 @@
 </file>
 
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -3455,6 +4560,36 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>116417</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>152401</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>624417</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="圖表 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3726,20 +4861,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q17"/>
+  <dimension ref="A1:W17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G15" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="L45" sqref="L45"/>
+    <sheetView tabSelected="1" topLeftCell="O31" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+      <selection activeCell="Y48" sqref="Y48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -3749,8 +4884,11 @@
       <c r="M2" t="s">
         <v>3</v>
       </c>
+      <c r="S2" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -3796,8 +4934,23 @@
       <c r="Q3" t="s">
         <v>8</v>
       </c>
+      <c r="S3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U3" t="s">
+        <v>6</v>
+      </c>
+      <c r="V3" t="s">
+        <v>7</v>
+      </c>
+      <c r="W3" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
@@ -3843,8 +4996,20 @@
       <c r="Q4">
         <v>1</v>
       </c>
+      <c r="S4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="T4">
+        <v>0</v>
+      </c>
+      <c r="U4">
+        <v>0</v>
+      </c>
+      <c r="W4">
+        <v>1</v>
+      </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
@@ -3890,8 +5055,23 @@
       <c r="Q5">
         <v>42</v>
       </c>
+      <c r="S5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="T5">
+        <v>1</v>
+      </c>
+      <c r="U5">
+        <v>0.9</v>
+      </c>
+      <c r="V5">
+        <v>0.95</v>
+      </c>
+      <c r="W5">
+        <v>42</v>
+      </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
@@ -3937,8 +5117,23 @@
       <c r="Q6">
         <v>39</v>
       </c>
+      <c r="S6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="T6">
+        <v>0.97</v>
+      </c>
+      <c r="U6">
+        <v>0.95</v>
+      </c>
+      <c r="V6">
+        <v>0.96</v>
+      </c>
+      <c r="W6">
+        <v>39</v>
+      </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
@@ -3984,8 +5179,23 @@
       <c r="Q7">
         <v>90</v>
       </c>
+      <c r="S7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="T7">
+        <v>0.91</v>
+      </c>
+      <c r="U7">
+        <v>0.9</v>
+      </c>
+      <c r="V7">
+        <v>0.91</v>
+      </c>
+      <c r="W7">
+        <v>90</v>
+      </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
         <v>13</v>
       </c>
@@ -4031,8 +5241,23 @@
       <c r="Q8">
         <v>7</v>
       </c>
+      <c r="S8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="T8">
+        <v>0.8</v>
+      </c>
+      <c r="U8">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="V8">
+        <v>0.67</v>
+      </c>
+      <c r="W8">
+        <v>7</v>
+      </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>14</v>
       </c>
@@ -4078,8 +5303,23 @@
       <c r="Q9">
         <v>93</v>
       </c>
+      <c r="S9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="T9">
+        <v>0.91</v>
+      </c>
+      <c r="U9">
+        <v>0.9</v>
+      </c>
+      <c r="V9">
+        <v>0.91</v>
+      </c>
+      <c r="W9">
+        <v>93</v>
+      </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
         <v>15</v>
       </c>
@@ -4125,8 +5365,23 @@
       <c r="Q10">
         <v>20</v>
       </c>
+      <c r="S10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="T10">
+        <v>1</v>
+      </c>
+      <c r="U10">
+        <v>0.8</v>
+      </c>
+      <c r="V10">
+        <v>0.89</v>
+      </c>
+      <c r="W10">
+        <v>20</v>
+      </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
         <v>16</v>
       </c>
@@ -4172,8 +5427,23 @@
       <c r="Q11">
         <v>18</v>
       </c>
+      <c r="S11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="T11">
+        <v>0.92</v>
+      </c>
+      <c r="U11">
+        <v>0.67</v>
+      </c>
+      <c r="V11">
+        <v>0.77</v>
+      </c>
+      <c r="W11">
+        <v>18</v>
+      </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
         <v>17</v>
       </c>
@@ -4219,8 +5489,23 @@
       <c r="Q12">
         <v>49</v>
       </c>
+      <c r="S12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T12">
+        <v>0.98</v>
+      </c>
+      <c r="U12">
+        <v>0.88</v>
+      </c>
+      <c r="V12">
+        <v>0.92</v>
+      </c>
+      <c r="W12">
+        <v>49</v>
+      </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
         <v>18</v>
       </c>
@@ -4266,8 +5551,23 @@
       <c r="Q13">
         <v>200</v>
       </c>
+      <c r="S13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T13">
+        <v>0.89</v>
+      </c>
+      <c r="U13">
+        <v>0.96</v>
+      </c>
+      <c r="V13">
+        <v>0.92</v>
+      </c>
+      <c r="W13">
+        <v>200</v>
+      </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
         <v>19</v>
       </c>
@@ -4313,8 +5613,23 @@
       <c r="Q14">
         <v>106</v>
       </c>
+      <c r="S14" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="T14">
+        <v>0.91</v>
+      </c>
+      <c r="U14">
+        <v>0.97</v>
+      </c>
+      <c r="V14">
+        <v>0.94</v>
+      </c>
+      <c r="W14">
+        <v>106</v>
+      </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
         <v>20</v>
       </c>
@@ -4360,8 +5675,23 @@
       <c r="Q15">
         <v>12</v>
       </c>
+      <c r="S15" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="T15">
+        <v>1</v>
+      </c>
+      <c r="U15">
+        <v>0.75</v>
+      </c>
+      <c r="V15">
+        <v>0.86</v>
+      </c>
+      <c r="W15">
+        <v>12</v>
+      </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
         <v>21</v>
       </c>
@@ -4407,8 +5737,23 @@
       <c r="Q16">
         <v>103</v>
       </c>
+      <c r="S16" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="T16">
+        <v>0.93</v>
+      </c>
+      <c r="U16">
+        <v>0.95</v>
+      </c>
+      <c r="V16">
+        <v>0.94</v>
+      </c>
+      <c r="W16">
+        <v>103</v>
+      </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
         <v>22</v>
       </c>
@@ -4452,13 +5797,28 @@
         <v>0.94</v>
       </c>
       <c r="Q17">
+        <v>780</v>
+      </c>
+      <c r="S17" t="s">
+        <v>22</v>
+      </c>
+      <c r="T17">
+        <v>0.92</v>
+      </c>
+      <c r="U17">
+        <v>0.92</v>
+      </c>
+      <c r="V17">
+        <v>0.92</v>
+      </c>
+      <c r="W17">
         <v>780</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="0" scale="0" orientation="portrait" usePrinterDefaults="0" useFirstPageNumber="1" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="0" verticalDpi="0"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
